--- a/src/files/FORMATO_MERCADO_OBSERVATORIO_INMOBILIARIO_NACIONAL.xlsx
+++ b/src/files/FORMATO_MERCADO_OBSERVATORIO_INMOBILIARIO_NACIONAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28724"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://danegovco-my.sharepoint.com/personal/pagoenagac_dane_gov_co/Documents/Documentos/PAGOENAGAC/02_Observatorio Inmobiliario - OIN/01_Cargues Observadores/Formatos - instructivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA940F1-BEB1-4D7B-B6ED-9A773515C0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{002AF4B1-E994-46BD-BD46-EA4E3C2FC5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0A0BFB9-DDF6-4D04-BE57-EF459CF0469A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PH" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="441">
   <si>
     <t>ESTRUCTURA DE DATOS</t>
   </si>
@@ -95,7 +95,7 @@
     <t>String</t>
   </si>
   <si>
-    <t xml:space="preserve">Identificador unico de la oferta asociada al predio </t>
+    <t xml:space="preserve">Identificador Consecutivo unico de la oferta asociada al predio. </t>
   </si>
   <si>
     <t>N/A</t>
@@ -107,331 +107,406 @@
     <t>NUMERO_PREDIAL_ANTIGUO</t>
   </si>
   <si>
+    <t>Número predial Antiguo de 20 digitos, ver estructura del numero predial en la hoja NUMERO_PREDIAL_ANTIGUO</t>
+  </si>
+  <si>
+    <t>Numero_Predial_Antiguo</t>
+  </si>
+  <si>
+    <t>Condicional</t>
+  </si>
+  <si>
+    <t>Unidad Administrativa Basica</t>
+  </si>
+  <si>
+    <t>Clase. LC_Predio</t>
+  </si>
+  <si>
+    <t>Para estos 4 campos por lo menos uno debe contener los datos referente a los identificadores prediales solicitados, si se tienen lo datos de los 4 campos, estos pueden ser diligenciados, pero en caso de no tener los datos de matricula inmobiliaria o numero predial antiguo o nuevo, el campo codigo homologado se vuelve obigatorio</t>
+  </si>
+  <si>
+    <t>NUMERO PREDIAL NUEVO</t>
+  </si>
+  <si>
+    <t>Número predial Antiguo de 30 digitos, ver estructura del numero predial en la hoja NUMERO_PREDIAL_NUEVO</t>
+  </si>
+  <si>
+    <t>Numero_Predial_Nuevo</t>
+  </si>
+  <si>
+    <t>CODIGO HOMOLOGADO</t>
+  </si>
+  <si>
+    <t>Es un código único para identificar los inmuebles tanto en los sistemas de información catastral como registral</t>
+  </si>
+  <si>
+    <t>Este campo se vuelve Obligatorio en caso de no tener los datos de Matricula Inmobiliaria o Numero Predial Antiguo o Numero Predial Nuevo</t>
+  </si>
+  <si>
+    <t>MATRICULA_INMOBILIARIA</t>
+  </si>
+  <si>
+    <t>Numero de Matricula inmobiliaria. Debe contener 12 dígitos, si tiene menos de 12 dígitos, rellenar con Ceros (0) a la izquierda.</t>
+  </si>
+  <si>
+    <t>EJEMPLO: 000034568152</t>
+  </si>
+  <si>
+    <t>TIPO OFERTA</t>
+  </si>
+  <si>
+    <t>Dominio</t>
+  </si>
+  <si>
+    <t>La clase de oferta corresponde a una oferta de venta o a una oferta de arriendo del predio.</t>
+  </si>
+  <si>
+    <t>LC_OfertasMercadoInmobiliario</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>Codigo DIVIPOLA asignado para el departamento de Colombia donde se encuentra ubicado el Predio.</t>
+  </si>
+  <si>
+    <t>EJEMPLO: 08</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>Codigo DIVIPOLA asignado para el municipio de Colombia donde se encuentra ubicado el Predio.</t>
+  </si>
+  <si>
+    <t>EJEMPLO: 08001</t>
+  </si>
+  <si>
+    <t>NOMBRE_BARRIO</t>
+  </si>
+  <si>
+    <t>Nombre del barrio aprobado en el acuerdo municipal.</t>
+  </si>
+  <si>
+    <t>Opcional</t>
+  </si>
+  <si>
+    <t>Submodelo de Cartografia catastral</t>
+  </si>
+  <si>
+    <t>Clase. CC_Barrio</t>
+  </si>
+  <si>
+    <t>ESTRATO</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Categoría de estrato del inmueble</t>
+  </si>
+  <si>
+    <t>Clase.LC_DatosAdicionalesLevantamientoCatastral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no se tiene conocimiento del estrato, se debe ingresar Cero (0)  </t>
+  </si>
+  <si>
+    <t>DIRECCIÓN</t>
+  </si>
+  <si>
+    <t>Estructura</t>
+  </si>
+  <si>
+    <t>Dirección del predio, para diligenciar este campo debe tener en cuenta las caracteristicas de las direcciones y cada uno de los apectos generadores que se enumeran en la observacion Ext_Direccion</t>
+  </si>
+  <si>
+    <t>EJEMPLO: CR 69 # 74-16</t>
+  </si>
+  <si>
+    <t>VALOR_ARRIENDO</t>
+  </si>
+  <si>
+    <t>Valor del arriendo en pesos colombianos y sin separador de miles, solo se debe llenar si el tipo de oferta corresponde a un arrendamiento</t>
+  </si>
+  <si>
+    <t>Este campo solo sera diligenciado cuando la oferta sea de tipo arrendamiento.
+Si no hay un valor, debe registrar Cero (0)</t>
+  </si>
+  <si>
+    <t>VALOR_ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>Valor de la administracion en pesos colombianos y sin separador de miles</t>
+  </si>
+  <si>
+    <t>VALOR_OFERTA_VENTA</t>
+  </si>
+  <si>
+    <t>Valor de la oferta en pesos colombianos y sin separador de miles</t>
+  </si>
+  <si>
+    <t>Este campo solo sera diligenciado cuando la oferta sea de tipo venta</t>
+  </si>
+  <si>
+    <t>PORCENTAJE  DE NEGOCIACIÓN</t>
+  </si>
+  <si>
+    <t>Para obtener este valor a 1 se le debe restar la division entre el valor negociado y el valor inicial de la oferta.
+FORMULA: 
+1-(VALOR_OFERTA_NEGOCIADO/VALOR_OFERTA_VENTA)</t>
+  </si>
+  <si>
+    <t>EJEMPLO: 0,1
+Este campo solo será diligenciado cuando la oferta sea de Tipo Venta</t>
+  </si>
+  <si>
+    <t>VALOR OFERTA NEGOCIADO</t>
+  </si>
+  <si>
+    <t>Valor de la oferta negociada en pesos colombianos y sin separador de miles</t>
+  </si>
+  <si>
+    <t>Este campo solo sera diligenciado cuando la oferta sea de Tipo Venta</t>
+  </si>
+  <si>
+    <t>ANIO_CONSTRUCCION</t>
+  </si>
+  <si>
+    <t>Año de edificación de la construcción.</t>
+  </si>
+  <si>
+    <t>Unidad Espacial</t>
+  </si>
+  <si>
+    <t>Clase. LC_Construcción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no se tiene conocimiento del año, se debe ingresar Cero (0)  </t>
+  </si>
+  <si>
+    <t>ALTURA EDIFICIO</t>
+  </si>
+  <si>
+    <t>Altura total de la construcción.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no se tiene conocimiento de la altura del edificio, se debe ingresar Cero (0)  </t>
+  </si>
+  <si>
+    <t>No. PISO</t>
+  </si>
+  <si>
+    <t>Numero de piso dentro de la torre o edificio, donde esta ubicado el apartamento en ph</t>
+  </si>
+  <si>
+    <t>ÁREA CONSTRUIDA (m²)</t>
+  </si>
+  <si>
+    <t>Area construida en metros cuadrados</t>
+  </si>
+  <si>
+    <t>opcional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no se tiene conocimiento del área construida, se debe ingresar Cero (0)  </t>
+  </si>
+  <si>
+    <t>ÁREA PRIVADA (m²)</t>
+  </si>
+  <si>
+    <t>Area privada en metros cuadrados</t>
+  </si>
+  <si>
+    <t>No. GARAJES</t>
+  </si>
+  <si>
+    <t>Cantidad de Garajes disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no se tiene conocimiento del número de garajes, se debe ingresar Cero (0)  </t>
+  </si>
+  <si>
+    <t>No. DEPÓSITOS</t>
+  </si>
+  <si>
+    <t>Cantidad de depositos disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si no se tiene conocimiento del número de depósitos, se debe ingresar Cero (0)  </t>
+  </si>
+  <si>
+    <t>VR TOTAL TERRAZA, BALCÓN Y/O PATIO</t>
+  </si>
+  <si>
+    <t>Valor en pesos colombianos sin separador de miles de la terraza, balcon y/o patio</t>
+  </si>
+  <si>
+    <t>VALOR GARAJES</t>
+  </si>
+  <si>
+    <t>Valor en pesos colombianos sin separador de miles del o los garajes</t>
+  </si>
+  <si>
+    <t>VALOR DEPÓSITOS</t>
+  </si>
+  <si>
+    <t>Valor en pesos colombianos, sin separador de miles del o los depositos</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>Descripcion del Inmueble y datos adicionales dados por el oferente.</t>
+  </si>
+  <si>
+    <t>Realizar observaciones del inmueble en máximo 500 caracteres.</t>
+  </si>
+  <si>
+    <t>LATITUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordenada Geografica latitud </t>
+  </si>
+  <si>
+    <t>LONGITUD</t>
+  </si>
+  <si>
+    <t>Coordenada Geografica longitud</t>
+  </si>
+  <si>
+    <t>CONSERVACION</t>
+  </si>
+  <si>
+    <t>Estado de conservación promedio de todas las construcciones encontradas dentro del predio</t>
+  </si>
+  <si>
+    <t>Clase. LC_Grupo Calificación</t>
+  </si>
+  <si>
+    <t>FECHA_CAPTURA_OFERTA</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Fecha de captura de la oferta en campo. 
+Formato: mes/dia/año</t>
+  </si>
+  <si>
+    <t>TIEMPO_OFERTA_MERCADO</t>
+  </si>
+  <si>
+    <t>Número de meses de la publicación de la oferta en el mercado inmobiliario</t>
+  </si>
+  <si>
+    <t>NUMERO_CONTACTO_OFERENTE</t>
+  </si>
+  <si>
+    <t>Número de teléfono fijo o número celular de la persona que está publicitando el bien inmueble.</t>
+  </si>
+  <si>
+    <t>NOMBRE_OFERENTE</t>
+  </si>
+  <si>
+    <t>Nombre completo de la persona que está vendiendo o arrendando el inmueble. Para las personas naturales se ingresa primeros los nombres y luego los apellidos, y para las personas jurídicas se ingresa la razón social.</t>
+  </si>
+  <si>
+    <t>COEFICIENTE</t>
+  </si>
+  <si>
+    <t>Coeficiente de copropiedad de la unidad predial.</t>
+  </si>
+  <si>
+    <t>LC_Predio_Copropiedad</t>
+  </si>
+  <si>
+    <t>AVALUO_CATASTRAL</t>
+  </si>
+  <si>
+    <t>Valor catastral del predio reportado en el ultimo impuesto predial del inmueble.</t>
+  </si>
+  <si>
+    <t>DESTINACION_ECONOMICA</t>
+  </si>
+  <si>
+    <t>Es la clasificación para fines estadísticos que se da a cada inmueble en su conjunto–terreno, construcciones o edificaciones-, en el momento de la identificación predial de conformidad con la actividad predominante que en él se desarrolle.</t>
+  </si>
+  <si>
+    <t>Clase. LC_DatosAdicionalesLevantamientoCatastral</t>
+  </si>
+  <si>
+    <t>DERECHO_TIPO</t>
+  </si>
+  <si>
+    <t>Derecho que se ejerce sobre el predio</t>
+  </si>
+  <si>
+    <t>Derechos Responsabilidades, Restricciones (DRR)</t>
+  </si>
+  <si>
+    <t>Clase. LC_Derecho</t>
+  </si>
+  <si>
+    <t>TIPO_TIPOLOGIA</t>
+  </si>
+  <si>
+    <t>Son las características de diseño y constructivas especiales de las construcciones y/o edificaciones predominantes</t>
+  </si>
+  <si>
+    <t>Clase. LC_Tipologia_Constr ucción</t>
+  </si>
+  <si>
+    <t>Ingresar de acuerdo al dominio Tipo Tipología que va del 0 al 24. En caso de no tener este dato, debe registrar 24</t>
+  </si>
+  <si>
+    <t>OfertasNPH</t>
+  </si>
+  <si>
+    <t>Comprende las ofertas sobre  los predios de interes que se encuetren dentro de las zonas de estudio del gestor catastral y no esten bajo el regimen de propiedad horizontal.</t>
+  </si>
+  <si>
+    <t>ID_OFERTA_NPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identificador Consecutivo unico de la oferta asociada al predio.  </t>
+  </si>
+  <si>
     <t>Numero predial Antiguo de 20 digitos, ver estructura del numero prediale en la hoja NUMERO_PREDIAL_ANTIGUO</t>
   </si>
   <si>
-    <t>Numero_Predial_Antiguo</t>
-  </si>
-  <si>
-    <t>Condicional</t>
-  </si>
-  <si>
-    <t>Unidad Administrativa Basica</t>
-  </si>
-  <si>
-    <t>Clase. LC_Predio</t>
-  </si>
-  <si>
     <t xml:space="preserve">Para estos 4 campos por lo menos uno debe contener los datos referente a los identificadores prediales solicitados, si se tienen lo datos de los 4 campos, estos pueden ser diligenciados, pero en caso de no tener los datos de matricula inmobiliaria o numero predial antiguo o nuevo, el campo codigo homologado se vuelve obigatorio </t>
   </si>
   <si>
-    <t>NUMERO PREDIAL NUEVO</t>
-  </si>
-  <si>
     <t>Numero predial Antiguo de 30 digitos, ver estructura del numero prediale en la hoja NUMERO_PREDIAL_NUEVO</t>
   </si>
   <si>
-    <t>Numero_Predial_Nuevo</t>
-  </si>
-  <si>
-    <t>CODIGO HOMOLOGADO</t>
-  </si>
-  <si>
-    <t>Es un código único para identificar los inmuebles tanto en los sistemas de información catastral como registral</t>
-  </si>
-  <si>
-    <t>MATRICULA_INMOBILIARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numero de Matricula inmobiliaria </t>
-  </si>
-  <si>
-    <t>TIPO OFERTA</t>
-  </si>
-  <si>
-    <t>Dominio</t>
-  </si>
-  <si>
-    <t>La clase de oferta corresponde a una oferta de venta o a una oferta de arriendo del predio.</t>
-  </si>
-  <si>
-    <t>LC_OfertasMercadoInmobiliario</t>
-  </si>
-  <si>
-    <t>DEPARTAMENTO</t>
-  </si>
-  <si>
-    <t>Codigo DIVIPOLA de 2 digitos asignado para el departamento de Colombia donde se encuentra ubicado el Predio</t>
-  </si>
-  <si>
-    <t>MUNICIPIO</t>
-  </si>
-  <si>
-    <t>Codigo DIVIPOLA de 5 digitos asignado para el municipio de Colombia donde se encuentra ubicado el Predio</t>
-  </si>
-  <si>
-    <t>NOMBRE_BARRIO</t>
-  </si>
-  <si>
-    <t>Nombre del barrio aprobado en el acuerdo municipal.</t>
-  </si>
-  <si>
-    <t>Opcional</t>
+    <t>Este campo se vuelve Obligatorio, en caso de no tener los datos de Matricula Inmobiliaria o Numero Predial Antiguo o Numero Predial Nuevo</t>
+  </si>
+  <si>
+    <t>Codigo DIVIPOLA asignado para el departamento de Colombia donde se encuentra ubicado el Predio</t>
+  </si>
+  <si>
+    <t>Codigo DIVIPOLA asignado para el municipio de Colombia donde se encuentra ubicado el Predio</t>
   </si>
   <si>
     <t>Submodelo de Cartografia ctastral</t>
   </si>
   <si>
-    <t>Clase. CC_Barrio</t>
-  </si>
-  <si>
-    <t>ESTRATO</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
     <t>Categoria de estrato del inmueble</t>
   </si>
   <si>
-    <t>Clase.LC_DatosAdicionalesLevantamientoCatastral</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN</t>
-  </si>
-  <si>
-    <t>Estructura</t>
-  </si>
-  <si>
-    <t>Dirección del predio, para diligenciar este campo debe tener en cuenta las caracteristicas de las direcciones y cada uno de los apectos generadores que se enumeran en la observacion Ext_Direccion</t>
-  </si>
-  <si>
-    <t>VALOR_ARRIENDO</t>
-  </si>
-  <si>
-    <t>Valor del arriendo en pesos colombianos y sin separador de miles, solo se debe llenar si el tipo de oferta corresponde arrendamiento</t>
+    <t>Valor del arriendo en pesos colombianos y sin separador de miles</t>
   </si>
   <si>
     <t>Este campo solo sera diligenciado cuando la oferta sea de tipo arrendamiento</t>
   </si>
   <si>
-    <t>VALOR_ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>Valor de la administracion en pesos colombianos y sin separador de miles</t>
-  </si>
-  <si>
-    <t>VALOR_OFERTA_VENTA</t>
-  </si>
-  <si>
-    <t>Valor de la oferta en pesos colombianos y sin separador de miles</t>
-  </si>
-  <si>
-    <t>Este campo solo sera diligenciado cuando la oferta sea de tipo venta</t>
-  </si>
-  <si>
-    <t>PORCENTAJE  DE NEGOCIACIÓN</t>
-  </si>
-  <si>
-    <t>Para obtener este valor a 1 se le debe restar la division entre el valor negociado y el valor inicial de la oferta</t>
-  </si>
-  <si>
-    <t>VALOR OFERTA NEGOCIADO</t>
-  </si>
-  <si>
-    <t>Valor de la oferta negociada en pesos colombianos y sin separador de miles</t>
-  </si>
-  <si>
-    <t>ANIO_CONSTRUCCION</t>
-  </si>
-  <si>
-    <t>Año de edificación de la construcción.</t>
-  </si>
-  <si>
-    <t>Unidad Espacial</t>
-  </si>
-  <si>
-    <t>Clase. LC_Construcción</t>
-  </si>
-  <si>
-    <t>ALTURA EDIFICIO</t>
-  </si>
-  <si>
-    <t>Altura total de la construcción.</t>
-  </si>
-  <si>
-    <t>No. PISO</t>
-  </si>
-  <si>
-    <t>Numero de piso dentro de la torre o edificio donde esta ubicado el apartamento en ph</t>
-  </si>
-  <si>
-    <t>ÁREA CONSTRUIDA (m²)</t>
-  </si>
-  <si>
-    <t>Area construida en metros cuadrados</t>
-  </si>
-  <si>
-    <t>opcional</t>
-  </si>
-  <si>
-    <t>ÁREA PRIVADA (m²)</t>
-  </si>
-  <si>
-    <t>Area privada en metros cuadrados</t>
-  </si>
-  <si>
-    <t>No. GARAJES</t>
-  </si>
-  <si>
-    <t>Cantidad de Garajes disponibles</t>
-  </si>
-  <si>
-    <t>No. DEPÓSITOS</t>
-  </si>
-  <si>
-    <t>Cantidad de depositos disponibles</t>
-  </si>
-  <si>
-    <t>VR TOTAL TERRAZA, BALCÓN Y/O PATIO</t>
-  </si>
-  <si>
-    <t>Valor en pesos colombianos sin separador de miles de la terraza, balcon y/o patio</t>
-  </si>
-  <si>
-    <t>VALOR GARAJES</t>
-  </si>
-  <si>
-    <t>Valor en pesos colombianos sin separador de miles del o los garajes</t>
-  </si>
-  <si>
-    <t>VALOR DEPÓSITOS</t>
-  </si>
-  <si>
-    <t>Valor en pesos colombianos, sin separador de miles del o los depositos</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES</t>
-  </si>
-  <si>
-    <t>Descripcion del Inmieble y datos adicionales dados por el oferente.</t>
-  </si>
-  <si>
-    <t>Este campo debe tener máximo 500 carácteres</t>
-  </si>
-  <si>
-    <t>LATITUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coordenada Geografica latitud </t>
-  </si>
-  <si>
-    <t>LONGITUD</t>
-  </si>
-  <si>
-    <t>Coordenada Geografica longitud</t>
-  </si>
-  <si>
-    <t>CONSERVACION</t>
-  </si>
-  <si>
-    <t>Estado de conservación promedio de todas las construcciones encontradas dentro del predio</t>
-  </si>
-  <si>
-    <t>Clase. LC_Grupo Calificación</t>
-  </si>
-  <si>
-    <t>FECHA_CAPTURA_OFERTA</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Año, mes y día de captura de la oferta en campo.</t>
-  </si>
-  <si>
-    <t>TIEMPO_OFERTA_MERCADO</t>
-  </si>
-  <si>
-    <t>Número de meses de la publicación de la oferta en el mercado inmobiliario</t>
-  </si>
-  <si>
-    <t>NUMERO_CONTACTO_OFERENTE</t>
-  </si>
-  <si>
-    <t>Número de teléfono fijo o número celular de la persona que está publicitando el bien inmueble.</t>
-  </si>
-  <si>
-    <t>NOMBRE_OFERENTE</t>
-  </si>
-  <si>
-    <t>Nombre completo de la persona que está vendiendo o arrendando el inmueble. Para las personas naturales se ingresa primeros los nombres y luego los apellidos, y para las personas jurídicas se ingresa la razón social.</t>
-  </si>
-  <si>
-    <t>COEFICIENTE</t>
-  </si>
-  <si>
-    <t>Coeficiente de copropiedad de la unidad predial.</t>
-  </si>
-  <si>
-    <t>LC_Predio_Copropiedad</t>
-  </si>
-  <si>
-    <t>AVALUO_CATASTRAL</t>
-  </si>
-  <si>
-    <t>Valor catastral del predio reportado en el ultimo impuesto predial del inmueble.</t>
-  </si>
-  <si>
-    <t>DESTINACION_ECONOMICA</t>
-  </si>
-  <si>
-    <t>Es la clasificación para fines estadísticos que se da a cada inmueble en su conjunto–terreno, construcciones o edificaciones-, en el momento de la identificación predial de conformidad con la actividad predominante que en él se desarrolle.</t>
-  </si>
-  <si>
-    <t>Clase. LC_DatosAdicionalesLevantamientoCatastral</t>
-  </si>
-  <si>
-    <t>DERECHO_TIPO</t>
-  </si>
-  <si>
-    <t>Derecho que se ejerce sobre el predio</t>
-  </si>
-  <si>
-    <t>Derechos Responsabilidades, Restricciones (DRR)</t>
-  </si>
-  <si>
-    <t>Clase. LC_Derecho</t>
-  </si>
-  <si>
-    <t>TIPO_TIPOLOGIA</t>
-  </si>
-  <si>
-    <t>Son las características de diseño y constructivas especiales de las construcciones y/o edificaciones predominantes</t>
-  </si>
-  <si>
-    <t>Clase. LC_Tipologia_Constr ucción</t>
-  </si>
-  <si>
-    <t>OfertasNPH</t>
-  </si>
-  <si>
-    <t>Comprende las ofertas sobre  los predios de interes que se encuetren dentro de las zonas de estudio del gestor catastral y no esten bajo el regimen de propiedad horizontal.</t>
-  </si>
-  <si>
-    <t>ID_OFERTA_NPH</t>
-  </si>
-  <si>
-    <t>Codigo DIVIPOLA asignado para el departamento de Colombia donde se encuentra ubicado el Predio</t>
-  </si>
-  <si>
-    <t>Codigo DIVIPOLA asignado para el municipio de Colombia donde se encuentra ubicado el Predio</t>
-  </si>
-  <si>
-    <t>Valor del arriendo en pesos colombianos y sin separador de miles</t>
-  </si>
-  <si>
     <t>VALOR DE LA OFERTA</t>
+  </si>
+  <si>
+    <t>EJEMPLO: 0,1
+Este campo solo sera diligenciado cuando la oferta sea de tipo venta</t>
   </si>
   <si>
     <t>AREA
@@ -459,6 +534,9 @@
     <t>Valor del metro cuadrado del terreno sin separador de miles</t>
   </si>
   <si>
+    <t>Descripcion del Inmieble y datos adicionales dados por el oferente.</t>
+  </si>
+  <si>
     <t>Son las características de diseño y constructivas especiales de las construcciones y/o edificaciones</t>
   </si>
   <si>
@@ -472,9 +550,6 @@
   </si>
   <si>
     <t>ID_OFERTA_RURAL</t>
-  </si>
-  <si>
-    <t>Numero de Matricula inmobiliaria de 12 dígitos</t>
   </si>
   <si>
     <t>NOMBRE_VEREDA</t>
@@ -1400,23 +1475,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="15">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="173" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;\ * #,##0_);_(&quot;$&quot;\ * \(#,##0\);_(&quot;$&quot;\ * &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;\ * #,##0.00_);_(&quot;$&quot;\ * \(#,##0.00\);_(&quot;$&quot;\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="173" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="175" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="177" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;\ #,##0.00;[Red]&quot;$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1638,9 +1713,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
-      <color theme="4"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
@@ -1825,6 +1945,19 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2081,31 +2214,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2150,24 +2270,24 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2175,43 +2295,43 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
@@ -2220,17 +2340,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2241,138 +2361,198 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="156"/>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" xfId="156" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="11" xfId="156" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="12" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="12" xfId="156" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2381,23 +2561,20 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2408,22 +2585,28 @@
     <xf numFmtId="0" fontId="32" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2506,8 +2689,8 @@
     <cellStyle name="Heading 2" xfId="85" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
     <cellStyle name="Heading 3" xfId="86" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
     <cellStyle name="Heading 4" xfId="87" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Hipervínculo" xfId="156" builtinId="8"/>
     <cellStyle name="Hipervínculo 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Hyperlink" xfId="156" builtinId="8"/>
     <cellStyle name="Incorrecto 2" xfId="88" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="Input" xfId="89" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
     <cellStyle name="Linked Cell" xfId="90" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
@@ -2913,10 +3096,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="41.85546875" customWidth="1"/>
+    <col min="10" max="10" width="43.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10">
+      <c r="B2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="2:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="43"/>
+      <c r="C5" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:10" ht="128.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="122.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="63" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="26" t="str">
+        <f>+DOMINIOS!$C$10</f>
+        <v>Dom_Tipo_Oferta</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="66.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B17" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="29"/>
+    </row>
+    <row r="18" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
+      <c r="B18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="26" t="str">
+        <f>+DOMINIOS!$C$47</f>
+        <v>Ext_Direccion</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B21" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
+      <c r="B23" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="121.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B26" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B28" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B29" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B30" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B31" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B32" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B33" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B34" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B35" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B36" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="2:9" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B37" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="26" t="str">
+        <f>+DOMINIOS!$C$91</f>
+        <v>Dom_EstadoConservacionTipo</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B39" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B40" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B41" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B42" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B43" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B44" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="28"/>
+    </row>
+    <row r="45" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
+      <c r="B45" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="26" t="str">
+        <f>+DOMINIOS!$C$16</f>
+        <v>Dom_Destinacion_Economica</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" s="22"/>
+    </row>
+    <row r="46" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B46" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="32" t="str">
+        <f>+DOMINIOS!$C$3</f>
+        <v>Dom_Derecho_Tipo</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B47" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="32" t="str">
+        <f>+DOMINIOS!$C$62</f>
+        <v>Dom_TipologiaTipo</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C6:I6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E45" location="DOMINIOS!C16" display="DOMINIOS!C16" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E14" location="DOMINIOS!C10" display="DOMINIOS!C10" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E19" location="DOMINIOS!C47" display="DOMINIOS!C47" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E46" location="DOMINIOS!C3" display="DOMINIOS!C3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E10" location="NUMERO_PREDIAL_ANTIGUO!A1" display="Numero_Predial_Antiguo" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E11" location="NUMERO_PREDIAL_NUEVO!A1" display="Numero_Predial_Nuevo" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E38" location="DOMINIOS!C77" display="DOMINIOS!C77" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E47" location="DOMINIOS!C48" display="DOMINIOS!C48" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:J41"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2928,75 +4168,76 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="41.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="21" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B4" s="23" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C4" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46"/>
+    </row>
+    <row r="5" spans="2:10" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="43"/>
+      <c r="C5" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C6" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
@@ -3022,930 +4263,796 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B9" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="6" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:10" ht="125.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B11" s="6" t="s">
+      <c r="I10" s="36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="117.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B12" s="6" t="s">
+      <c r="I11" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="I12" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="I13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="14" spans="2:10" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="C14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="26" t="str">
         <f>+DOMINIOS!$C$10</f>
         <v>Dom_Tipo_Oferta</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="H14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="I15" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="8"/>
+      <c r="F17" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
-      <c r="B18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="8"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="13" t="str">
+      <c r="B19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="26" t="str">
         <f>+DOMINIOS!$C$47</f>
         <v>Ext_Direccion</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="I19" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B21" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
+      <c r="B22" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B23" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B24" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="G24" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B25" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="F25" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B26" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="F26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="28"/>
+    </row>
+    <row r="27" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B27" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="6" t="s">
+      <c r="F27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B28" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="28"/>
+    </row>
+    <row r="29" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B29" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B30" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="28"/>
+    </row>
+    <row r="31" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B31" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="28"/>
+    </row>
+    <row r="32" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B32" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="121.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B27" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B29" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B30" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B31" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B32" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B33" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9" ht="30">
-      <c r="B35" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B36" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="44.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="13" t="str">
+      <c r="D32" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="26" t="str">
         <f>+DOMINIOS!$C$91</f>
         <v>Dom_EstadoConservacionTipo</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F32" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B39" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="G32" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B33" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F33" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G33" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H33" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B34" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B35" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B36" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B37" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
+      <c r="B38" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B40" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B41" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B43" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B44" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
-      <c r="B45" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="13" t="str">
+      <c r="D38" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="26" t="str">
         <f>+DOMINIOS!$C$16</f>
         <v>Dom_Destinacion_Economica</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F38" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="4" t="s">
+      <c r="G38" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B46" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="14" t="str">
+      <c r="H38" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B39" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="32" t="str">
         <f>+DOMINIOS!$C$3</f>
         <v>Dom_Derecho_Tipo</v>
       </c>
-      <c r="F46" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B47" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E47" s="14" t="str">
+      <c r="F39" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B40" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="32" t="str">
         <f>+DOMINIOS!$C$62</f>
         <v>Dom_TipologiaTipo</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" thickTop="1"/>
+      <c r="F40" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I40" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
-    <mergeCell ref="I10:I13"/>
     <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E45" location="DOMINIOS!C16" display="DOMINIOS!C16" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E14" location="DOMINIOS!C10" display="DOMINIOS!C10" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E19" location="DOMINIOS!C33" display="DOMINIOS!C33" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E38" location="DOMINIOS!C77" display="DOMINIOS!C77" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E46" location="DOMINIOS!C3" display="DOMINIOS!C3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E47" location="DOMINIOS!C48" display="DOMINIOS!C48" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E10" location="NUMERO_PREDIAL_ANTIGUO!A1" display="Numero_Predial_Antiguo" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E11" location="NUMERO_PREDIAL_NUEVO!A1" display="Numero_Predial_Nuevo" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E14" location="DOMINIOS!C10" display="DOMINIOS!C10" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E19" location="DOMINIOS!C47" display="DOMINIOS!C47" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E38" location="DOMINIOS!C16" display="DOMINIOS!C16" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="E39" location="DOMINIOS!C3" display="DOMINIOS!C3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="E40" location="DOMINIOS!C62" display="DOMINIOS!C62" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E10" location="NUMERO_PREDIAL_ANTIGUO!A1" display="Numero_Predial_Antiguo" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="E11" location="NUMERO_PREDIAL_NUEVO!A1" display="Numero_Predial_Nuevo" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="E32" location="DOMINIOS!C91" display="DOMINIOS!C91" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:I41"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3957,1804 +5064,940 @@
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="41.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="23" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="2:9" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B6" s="11" t="s">
+      <c r="C4" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="2:10" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="51"/>
+      <c r="C5" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B7" s="11" t="s">
+      <c r="C6" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B8" s="12" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="9" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B10" s="6" t="s">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="2:10" ht="51" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="D10" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B11" s="6" t="s">
+      <c r="I10" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="114" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B12" s="6" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="I12" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B13" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="I13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="14" spans="2:10" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B14" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="13" t="str">
+      <c r="C14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="26" t="str">
         <f>+DOMINIOS!$C$10</f>
         <v>Dom_Tipo_Oferta</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="H14" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="I15" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B16" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D16" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
-      <c r="B18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="F17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B18" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
+      <c r="B19" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="13" t="str">
+      <c r="G19" s="28"/>
+      <c r="H19" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="26" t="str">
         <f>+DOMINIOS!$C$47</f>
         <v>Ext_Direccion</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B20" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="I20" s="22"/>
+    </row>
+    <row r="21" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B22" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
+      <c r="B23" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B24" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B25" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="G25" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B26" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B21" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="F26" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B27" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="F27" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B28" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B29" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B30" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B31" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B32" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B33" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B22" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B25" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B26" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B27" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B28" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="2:9" ht="30">
-      <c r="B29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B32" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="13" t="str">
+      <c r="D33" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="26" t="str">
         <f>+DOMINIOS!$C$91</f>
         <v>Dom_EstadoConservacionTipo</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F33" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="G33" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B34" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F34" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G34" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H34" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B35" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B36" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B37" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="22"/>
+    </row>
+    <row r="38" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B38" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
+      <c r="B39" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B34" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B37" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
-      <c r="B38" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="13" t="str">
+      <c r="D39" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="26" t="str">
         <f>+DOMINIOS!$C$16</f>
         <v>Dom_Destinacion_Economica</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B39" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="14" t="str">
+      <c r="H39" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B40" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="32" t="str">
         <f>+DOMINIOS!$C$3</f>
         <v>Dom_Derecho_Tipo</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B40" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E40" s="14" t="str">
+      <c r="F40" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
+      <c r="B41" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="32" t="str">
         <f>+DOMINIOS!$C$62</f>
         <v>Dom_TipologiaTipo</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="2:9" ht="15.75" thickTop="1"/>
+      <c r="F41" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I41" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
+      <c r="B42" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
+      <c r="B43" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+    </row>
+    <row r="44" spans="2:9" ht="15.75" thickTop="1"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="C7:I7"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I10:I13"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E14" location="DOMINIOS!C10" display="DOMINIOS!C10" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E19" location="DOMINIOS!C33" display="DOMINIOS!C33" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="E38" location="DOMINIOS!C16" display="DOMINIOS!C16" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E39" location="DOMINIOS!C3" display="DOMINIOS!C3" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="E40" location="DOMINIOS!C48" display="DOMINIOS!C48" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E10" location="NUMERO_PREDIAL_ANTIGUO!A1" display="Numero_Predial_Antiguo" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="E11" location="NUMERO_PREDIAL_NUEVO!A1" display="Numero_Predial_Nuevo" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E32" location="DOMINIOS!C77" display="DOMINIOS!C77" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:I44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="49.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="41.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="2:9" ht="41.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="2:9" ht="15.6" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="2:9" ht="30">
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="30"/>
-    </row>
-    <row r="14" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="13" t="str">
-        <f>+DOMINIOS!$C$10</f>
-        <v>Dom_Tipo_Oferta</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
-      <c r="B19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="13" t="str">
-        <f>+DOMINIOS!$C$47</f>
-        <v>Ext_Direccion</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B22" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B24" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B26" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B27" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B28" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B29" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" ht="30">
-      <c r="B30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="13" t="str">
-        <f>+DOMINIOS!$C$91</f>
-        <v>Dom_EstadoConservacionTipo</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B34" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="2:9" ht="76.5" thickTop="1" thickBot="1">
-      <c r="B39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="13" t="str">
-        <f>+DOMINIOS!$C$16</f>
-        <v>Dom_Destinacion_Economica</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" s="4"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B40" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="14" t="str">
-        <f>+DOMINIOS!$C$3</f>
-        <v>Dom_Derecho_Tipo</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="2:9" ht="61.5" thickTop="1" thickBot="1">
-      <c r="B41" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="14" t="str">
-        <f>+DOMINIOS!$C$62</f>
-        <v>Dom_TipologiaTipo</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="2:9" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B42" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="2:9" ht="46.5" thickTop="1" thickBot="1">
-      <c r="B43" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="2:9" ht="15.75" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C7:I7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E14" location="DOMINIOS!C10" display="DOMINIOS!C10" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E33" location="DOMINIOS!C77" display="DOMINIOS!C77" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E39" location="DOMINIOS!C16" display="DOMINIOS!C16" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E40" location="DOMINIOS!C3" display="DOMINIOS!C3" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E41" location="DOMINIOS!C48" display="DOMINIOS!C48" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E10" location="NUMERO_PREDIAL_ANTIGUO!A1" display="Numero_Predial_Antiguo" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E11" location="NUMERO_PREDIAL_NUEVO!A1" display="Numero_Predial_Nuevo" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E20" location="DOMINIOS!C33" display="DOMINIOS!C33" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E10" location="NUMERO_PREDIAL_ANTIGUO!A1" display="Numero_Predial_Antiguo" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E11" location="NUMERO_PREDIAL_NUEVO!A1" display="Numero_Predial_Nuevo" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E20" location="DOMINIOS!C47" display="DOMINIOS!C47" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E33" location="DOMINIOS!C91" display="DOMINIOS!C91" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E39" location="DOMINIOS!C16" display="DOMINIOS!C16" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E40" location="DOMINIOS!C3" display="DOMINIOS!C3" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E41" location="DOMINIOS!C62" display="DOMINIOS!C62" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5762,8 +6005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:D157"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5777,19 +6020,19 @@
     <row r="2" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="3" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -5800,10 +6043,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -5811,10 +6054,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -5822,29 +6065,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="9" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="56"/>
     </row>
     <row r="11" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B11" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -5855,10 +6098,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1">
@@ -5866,29 +6109,29 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="15" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="16" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="D16" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -5899,10 +6142,10 @@
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="54" customHeight="1" thickTop="1" thickBot="1">
@@ -5910,10 +6153,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="60.75" customHeight="1" thickTop="1" thickBot="1">
@@ -5921,10 +6164,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="45.75" customHeight="1" thickTop="1" thickBot="1">
@@ -5932,10 +6175,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="51.75" customHeight="1" thickTop="1" thickBot="1">
@@ -5943,10 +6186,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -5954,21 +6197,21 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
       <c r="B24" s="3">
         <v>6</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="58.5" customHeight="1" thickTop="1" thickBot="1">
@@ -5976,10 +6219,10 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="86.25" customHeight="1" thickTop="1" thickBot="1">
@@ -5987,10 +6230,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -5998,10 +6241,10 @@
         <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
@@ -6009,10 +6252,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
@@ -6020,10 +6263,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
@@ -6031,10 +6274,10 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6042,10 +6285,10 @@
         <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6053,10 +6296,10 @@
         <v>14</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="91.5" thickTop="1" thickBot="1">
@@ -6064,10 +6307,10 @@
         <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -6075,10 +6318,10 @@
         <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6086,10 +6329,10 @@
         <v>17</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6097,10 +6340,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6108,10 +6351,10 @@
         <v>19</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6119,10 +6362,10 @@
         <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6130,10 +6373,10 @@
         <v>21</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6141,10 +6384,10 @@
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6152,10 +6395,10 @@
         <v>23</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6163,10 +6406,10 @@
         <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6174,10 +6417,10 @@
         <v>25</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6185,150 +6428,150 @@
         <v>26</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="46" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="47" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B47" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D47" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="56"/>
     </row>
     <row r="48" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B48" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B49" s="36"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="3" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="151.5" thickTop="1" thickBot="1">
-      <c r="B50" s="37"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="3" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B51" s="37"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="3" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B52" s="37"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="3" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B53" s="37"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="3" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B54" s="37"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="3" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B55" s="37"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="3" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B56" s="37"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="3" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B57" s="37"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="3" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B58" s="37"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="3" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
-      <c r="B59" s="38"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="3" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="61" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="62" spans="2:4" ht="15.75" thickBot="1">
       <c r="B62" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C62" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" s="56"/>
     </row>
     <row r="63" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B63" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>9</v>
@@ -6339,10 +6582,10 @@
         <v>0</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -6350,10 +6593,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6361,10 +6604,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6372,10 +6615,10 @@
         <v>3</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6383,10 +6626,10 @@
         <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6394,10 +6637,10 @@
         <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6405,10 +6648,10 @@
         <v>6</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6416,10 +6659,10 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6427,10 +6670,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6438,10 +6681,10 @@
         <v>9</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6449,10 +6692,10 @@
         <v>10</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6460,10 +6703,10 @@
         <v>11</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6471,10 +6714,10 @@
         <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6482,10 +6725,10 @@
         <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6493,10 +6736,10 @@
         <v>14</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6504,10 +6747,10 @@
         <v>15</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
@@ -6515,10 +6758,10 @@
         <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
     </row>
     <row r="81" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6526,10 +6769,10 @@
         <v>17</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6537,10 +6780,10 @@
         <v>18</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6548,10 +6791,10 @@
         <v>19</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
     </row>
     <row r="84" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6559,10 +6802,10 @@
         <v>20</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
     </row>
     <row r="85" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6570,21 +6813,21 @@
         <v>21</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
       <c r="B86" s="3">
         <v>22</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6592,10 +6835,10 @@
         <v>23</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
@@ -6603,29 +6846,29 @@
         <v>24</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="90" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="91" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B91" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="D91" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C91" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="D91" s="56"/>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>9</v>
@@ -6636,10 +6879,10 @@
         <v>0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
@@ -6647,10 +6890,10 @@
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6658,10 +6901,10 @@
         <v>2</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6669,29 +6912,29 @@
         <v>3</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="98" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="99" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B99" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D99" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C99" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="D99" s="56"/>
     </row>
     <row r="100" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B100" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>9</v>
@@ -6702,10 +6945,10 @@
         <v>0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -6713,10 +6956,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -6724,29 +6967,29 @@
         <v>2</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="105" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="106" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B106" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C106" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="D106" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C106" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="D106" s="56"/>
     </row>
     <row r="107" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B107" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>9</v>
@@ -6757,10 +7000,10 @@
         <v>0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
     </row>
     <row r="109" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -6768,10 +7011,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="110" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -6779,10 +7022,10 @@
         <v>2</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
     </row>
     <row r="111" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
@@ -6790,29 +7033,29 @@
         <v>3</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="113" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="114" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B114" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="D114" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C114" s="55" t="s">
+        <v>350</v>
+      </c>
+      <c r="D114" s="56"/>
     </row>
     <row r="115" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B115" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>9</v>
@@ -6823,10 +7066,10 @@
         <v>0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
     </row>
     <row r="117" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -6834,10 +7077,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6845,10 +7088,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
     </row>
     <row r="119" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6856,29 +7099,29 @@
         <v>3</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="121" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="122" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B122" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="D122" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C122" s="55" t="s">
+        <v>359</v>
+      </c>
+      <c r="D122" s="56"/>
     </row>
     <row r="123" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B123" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>9</v>
@@ -6889,10 +7132,10 @@
         <v>0</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -6900,10 +7143,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
     </row>
     <row r="126" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
@@ -6911,10 +7154,10 @@
         <v>2</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6922,10 +7165,10 @@
         <v>3</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
     </row>
     <row r="128" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6933,29 +7176,29 @@
         <v>4</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="130" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="131" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B131" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D131" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C131" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D131" s="56"/>
     </row>
     <row r="132" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B132" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>9</v>
@@ -6966,10 +7209,10 @@
         <v>0</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6977,10 +7220,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
     </row>
     <row r="135" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -6988,10 +7231,10 @@
         <v>2</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -6999,29 +7242,29 @@
         <v>3</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
     </row>
     <row r="137" spans="2:4" ht="15.75" thickTop="1"/>
     <row r="138" spans="2:4" ht="15.75" thickBot="1"/>
     <row r="139" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B139" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C139" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="D139" s="35"/>
+        <v>182</v>
+      </c>
+      <c r="C139" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="D139" s="56"/>
     </row>
     <row r="140" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="B140" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>9</v>
@@ -7032,10 +7275,10 @@
         <v>0</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
     </row>
     <row r="142" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -7043,10 +7286,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
@@ -7054,10 +7297,10 @@
         <v>2</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="144" spans="2:4" ht="76.5" thickTop="1" thickBot="1">
@@ -7065,10 +7308,10 @@
         <v>3</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="145" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -7076,10 +7319,10 @@
         <v>4</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -7087,10 +7330,10 @@
         <v>5</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="147" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -7098,10 +7341,10 @@
         <v>6</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -7109,10 +7352,10 @@
         <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
@@ -7120,10 +7363,10 @@
         <v>8</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
     </row>
     <row r="150" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
@@ -7131,10 +7374,10 @@
         <v>9</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
     </row>
     <row r="151" spans="2:4" ht="16.5" thickTop="1" thickBot="1">
@@ -7142,10 +7385,10 @@
         <v>10</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
     </row>
     <row r="152" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -7153,10 +7396,10 @@
         <v>11</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
     </row>
     <row r="153" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -7164,10 +7407,10 @@
         <v>12</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
     </row>
     <row r="154" spans="2:4" ht="31.5" thickTop="1" thickBot="1">
@@ -7175,10 +7418,10 @@
         <v>13</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
     </row>
     <row r="155" spans="2:4" ht="46.5" thickTop="1" thickBot="1">
@@ -7186,10 +7429,10 @@
         <v>14</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="2:4" ht="61.5" thickTop="1" thickBot="1">
@@ -7197,15 +7440,21 @@
         <v>15</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="2:4" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C131:D131"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B49:B59"/>
     <mergeCell ref="C62:D62"/>
@@ -7213,12 +7462,6 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7228,7 +7471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
@@ -7239,41 +7482,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="39" t="s">
-        <v>386</v>
-      </c>
-      <c r="C1" s="39"/>
+      <c r="B1" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="39" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="39"/>
+      <c r="B2" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="60"/>
     </row>
     <row r="3" spans="2:3" ht="53.25" customHeight="1">
-      <c r="B3" s="40" t="s">
-        <v>388</v>
-      </c>
-      <c r="C3" s="40"/>
+      <c r="B3" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="2:3" ht="171" customHeight="1">
-      <c r="B4" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="40"/>
+      <c r="B4" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="2:3" ht="33" customHeight="1" thickBot="1">
-      <c r="B5" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="42"/>
+      <c r="B5" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="63"/>
     </row>
     <row r="6" spans="2:3" ht="40.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="140.25" customHeight="1" thickTop="1" thickBot="1">
@@ -7281,15 +7524,15 @@
         <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="B8" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" thickTop="1"/>
@@ -7327,217 +7570,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
-      <c r="A1" s="47" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
+      <c r="A1" s="66" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>4</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>5</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>6</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>7</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="13">
         <v>8</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="13">
         <v>9</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="13">
         <v>10</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="13">
         <v>11</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="13">
         <v>12</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="13">
         <v>13</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="13">
         <v>14</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="13">
         <v>15</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="13">
         <v>16</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="13">
         <v>17</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="13">
         <v>18</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="13">
         <v>19</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67" t="s">
+        <v>421</v>
+      </c>
+      <c r="O4" s="67"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="45" t="s">
-        <v>405</v>
-      </c>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
+      <c r="A5" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
     </row>
     <row r="6" spans="1:20" ht="59.45" customHeight="1">
-      <c r="F6" s="45" t="s">
-        <v>406</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
+      <c r="F6" s="64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
     </row>
     <row r="7" spans="1:20" ht="50.45" customHeight="1">
-      <c r="F7" s="45" t="s">
-        <v>407</v>
-      </c>
-      <c r="G7" s="45"/>
+      <c r="F7" s="64" t="s">
+        <v>430</v>
+      </c>
+      <c r="G7" s="64"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="F7:G7"/>
@@ -7555,6 +7797,7 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7581,317 +7824,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18.75">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="53"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="74"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>2</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="13">
         <v>3</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="13">
         <v>4</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="13">
         <v>5</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="13">
         <v>6</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="13">
         <v>7</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="13">
         <v>8</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="13">
         <v>9</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="13">
         <v>10</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="13">
         <v>11</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="13">
         <v>12</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="13">
         <v>13</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="13">
         <v>14</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="13">
         <v>15</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="13">
         <v>16</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="13">
         <v>17</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="13">
         <v>18</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="13">
         <v>19</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="13">
         <v>20</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="13">
         <v>21</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="13">
         <v>22</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="13">
         <v>23</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="13">
         <v>24</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2" s="13">
         <v>25</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="Z2" s="13">
         <v>26</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="13">
         <v>27</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="13">
         <v>28</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AC2" s="13">
         <v>29</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AD2" s="13">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45" t="s">
-        <v>408</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="43" t="s">
-        <v>409</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
-        <v>410</v>
-      </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43" t="s">
-        <v>411</v>
-      </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="W4" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67" t="s">
+        <v>434</v>
+      </c>
+      <c r="S4" s="67"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="W4" s="67" t="s">
+        <v>435</v>
+      </c>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
     </row>
     <row r="5" spans="1:30" ht="14.45" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49" t="s">
-        <v>413</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49" t="s">
-        <v>402</v>
-      </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="49" t="s">
-        <v>414</v>
-      </c>
-      <c r="W5" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49" t="s">
-        <v>416</v>
-      </c>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49" t="s">
-        <v>417</v>
-      </c>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
+      <c r="A5" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="O5" s="69"/>
+      <c r="P5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="W5" s="69" t="s">
+        <v>438</v>
+      </c>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
     </row>
     <row r="6" spans="1:30" ht="60" customHeight="1">
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="69"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="69"/>
     </row>
     <row r="7" spans="1:30" ht="63.6" customHeight="1">
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="18"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="16"/>
     </row>
     <row r="8" spans="1:30">
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="R5:U6"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="Y5:Z6"/>
-    <mergeCell ref="AA5:AD6"/>
-    <mergeCell ref="L4:M4"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:U4"/>
@@ -7908,6 +8144,13 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="R5:U6"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="Y5:Z6"/>
+    <mergeCell ref="AA5:AD6"/>
+    <mergeCell ref="L4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7916,11 +8159,10 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1eba0c2-f36b-4651-b166-321005ef9bd5">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="56e6d1e7-6899-430c-9877-67183cfe1730">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="33cb08ec-2bec-4dfa-b9c2-99b974eb307a" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="a1eba0c2-f36b-4651-b166-321005ef9bd5" xsi:nil="true"/>
+    <TaxCatchAll xmlns="12ae8c1a-628e-4358-b6c7-76504a3ed5f5" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
@@ -7928,11 +8170,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010064F875B922180C418F2AF9533453ADD0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00e18382c69993aa5415cab04a8b3767">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="a1eba0c2-f36b-4651-b166-321005ef9bd5" xmlns:ns3="33cb08ec-2bec-4dfa-b9c2-99b974eb307a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8b7fa65a4152bd8946f66d5f3329f120" ns1:_="" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005130CDF0AED5E24687116040571C2670" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4ca38bd293e1f46fc2d80543fcabc513">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="56e6d1e7-6899-430c-9877-67183cfe1730" xmlns:ns3="12ae8c1a-628e-4358-b6c7-76504a3ed5f5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7b7ac010015372a51cbd13e6f58c8408" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
-    <xsd:import namespace="a1eba0c2-f36b-4651-b166-321005ef9bd5"/>
-    <xsd:import namespace="33cb08ec-2bec-4dfa-b9c2-99b974eb307a"/>
+    <xsd:import namespace="56e6d1e7-6899-430c-9877-67183cfe1730"/>
+    <xsd:import namespace="12ae8c1a-628e-4358-b6c7-76504a3ed5f5"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -7943,16 +8194,15 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:_Flow_SignoffStatus" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyProperties" minOccurs="0"/>
                 <xsd:element ref="ns1:_ip_UnifiedCompliancePolicyUIAction" minOccurs="0"/>
               </xsd:all>
@@ -7965,18 +8215,18 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="23" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
+    <xsd:element name="_ip_UnifiedCompliancePolicyProperties" ma:index="22" nillable="true" ma:displayName="Unified Compliance Policy Properties" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyProperties">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="24" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
+    <xsd:element name="_ip_UnifiedCompliancePolicyUIAction" ma:index="23" nillable="true" ma:displayName="Unified Compliance Policy UI Action" ma:hidden="true" ma:internalName="_ip_UnifiedCompliancePolicyUIAction">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a1eba0c2-f36b-4651-b166-321005ef9bd5" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56e6d1e7-6899-430c-9877-67183cfe1730" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -7989,14 +8239,14 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
@@ -8006,40 +8256,35 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ea9b580d-3441-472b-b633-05114d4a3dc4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ea9b580d-3441-472b-b633-05114d4a3dc4" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="20" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="_Flow_SignoffStatus" ma:index="22" nillable="true" ma:displayName="Sign-off status" ma:internalName="Sign_x002d_off_x0020_status">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="33cb08ec-2bec-4dfa-b9c2-99b974eb307a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="12ae8c1a-628e-4358-b6c7-76504a3ed5f5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
@@ -8068,7 +8313,7 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{0146ab59-1936-426a-b3a3-2b186f64b247}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="33cb08ec-2bec-4dfa-b9c2-99b974eb307a">
+    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{20c8bf96-2f52-44e7-8af1-b3a831c64eb2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="12ae8c1a-628e-4358-b6c7-76504a3ed5f5">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -8179,51 +8424,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2EAF8EB-E385-4D9F-9B4A-652E2A0EB494}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1eba0c2-f36b-4651-b166-321005ef9bd5"/>
-    <ds:schemaRef ds:uri="33cb08ec-2bec-4dfa-b9c2-99b974eb307a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{839A0801-D36A-4139-B532-5E42E397B169}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D353BFC6-68F0-46E1-91AB-E2703CE758B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="a1eba0c2-f36b-4651-b166-321005ef9bd5"/>
-    <ds:schemaRef ds:uri="33cb08ec-2bec-4dfa-b9c2-99b974eb307a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4A10F0A-2409-47CB-90A5-A7D4173030B1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B1E24D-89DC-43BB-B09A-1B55ACC77B73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FE5C0BA-0648-42B0-A05E-D2A887E88AC0}"/>
 </file>